--- a/data/trans_orig/P14A29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26788F8-516B-47FC-99EC-31F845655DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1487DAB8-1C6A-4C7B-AAC9-602077535C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CF2D460-352D-4F05-B248-978F963E0049}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{454F261D-14E0-4491-8EA7-EC41EFAD0879}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="155">
   <si>
     <t>Población que recibe medicación o terapia por osteoporosis en 2012 (Tasa respuesta: 2,07%)</t>
   </si>
@@ -105,19 +105,19 @@
     <t>76,45%</t>
   </si>
   <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>51,53%</t>
@@ -126,19 +126,19 @@
     <t>23,55%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -147,13 +147,13 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>82,75%</t>
+    <t>82,49%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>17,25%</t>
+    <t>17,51%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -162,37 +162,37 @@
     <t>85,02%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -204,19 +204,19 @@
     <t>85,07%</t>
   </si>
   <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -225,67 +225,67 @@
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>10,44%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>89,56%</t>
+    <t>90,02%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,37 +309,37 @@
     <t>84,81%</t>
   </si>
   <si>
-    <t>63,64%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
     <t>15,19%</t>
   </si>
   <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>37,47%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -348,19 +348,19 @@
     <t>77,11%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -369,25 +369,25 @@
     <t>22,89%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>71,41%</t>
+    <t>71,5%</t>
   </si>
   <si>
     <t>96,73%</t>
@@ -396,7 +396,7 @@
     <t>89,69%</t>
   </si>
   <si>
-    <t>73,16%</t>
+    <t>72,87%</t>
   </si>
   <si>
     <t>96,88%</t>
@@ -408,7 +408,7 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>28,59%</t>
+    <t>28,5%</t>
   </si>
   <si>
     <t>10,31%</t>
@@ -417,85 +417,91 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>26,84%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>62,87%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,84%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>37,13%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>25,16%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -907,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2965B426-D538-42ED-A239-6D541BE13D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11468516-0B6C-46A8-8E9C-8EC48A292269}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1958,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F144966A-0E3F-4860-B45C-31355F3FEC09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6498FE9B-953C-46FE-A31F-9112B73E1242}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2893,7 +2899,7 @@
         <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2914,13 @@
         <v>802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -2923,13 +2929,13 @@
         <v>22598</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2938,13 +2944,13 @@
         <v>23400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1487DAB8-1C6A-4C7B-AAC9-602077535C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B424E59F-5780-4306-9CDF-4AD18DC3BD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{454F261D-14E0-4491-8EA7-EC41EFAD0879}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A7BF619-C96F-468F-9415-2E4A1ED33BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="157">
   <si>
     <t>Población que recibe medicación o terapia por osteoporosis en 2012 (Tasa respuesta: 2,07%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,7 +96,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>48,47%</t>
@@ -105,19 +105,19 @@
     <t>76,45%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>51,53%</t>
@@ -126,73 +126,73 @@
     <t>23,55%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>82,49%</t>
+    <t>83,59%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -204,19 +204,19 @@
     <t>85,07%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -225,73 +225,73 @@
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>10,49%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>89,51%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por osteoporosis en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población que recibe medicación o terapia por osteoporosis en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>67,18%</t>
@@ -300,46 +300,52 @@
     <t>75,99%</t>
   </si>
   <si>
+    <t>23,33%</t>
+  </si>
+  <si>
     <t>32,82%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
+    <t>76,67%</t>
+  </si>
+  <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -348,19 +354,19 @@
     <t>77,11%</t>
   </si>
   <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -369,139 +375,139 @@
     <t>22,89%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>77,73%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>62,41%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>37,59%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
 </sst>
 </file>
@@ -913,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11468516-0B6C-46A8-8E9C-8EC48A292269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E034E8-0353-4ECE-AF20-DB2F5B304B17}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1964,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6498FE9B-953C-46FE-A31F-9112B73E1242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760A3528-4214-4EB1-8A64-68FA2EB55125}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2127,7 @@
         <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>12</v>
@@ -2154,7 +2160,7 @@
         <v>983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -2169,13 +2175,13 @@
         <v>983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2264,13 @@
         <v>20182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2273,13 +2279,13 @@
         <v>20181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2315,13 @@
         <v>3615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2324,13 +2330,13 @@
         <v>4417</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2413,13 +2419,13 @@
         <v>27438</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2428,13 +2434,13 @@
         <v>31283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,7 +2461,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2464,13 +2470,13 @@
         <v>8143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -2479,13 +2485,13 @@
         <v>8143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2574,13 @@
         <v>27438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -2583,13 +2589,13 @@
         <v>29676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2625,13 @@
         <v>3413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2634,13 +2640,13 @@
         <v>3413</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -2723,13 +2729,13 @@
         <v>22494</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -2738,13 +2744,13 @@
         <v>26282</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2771,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2774,13 +2780,13 @@
         <v>6444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2789,13 +2795,13 @@
         <v>6444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,10 +2869,10 @@
         <v>10970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -2878,13 +2884,13 @@
         <v>99565</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M19" s="7">
         <v>97</v>
@@ -2893,13 +2899,13 @@
         <v>110535</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2920,13 @@
         <v>802</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -2929,13 +2935,13 @@
         <v>22598</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2944,13 +2950,13 @@
         <v>23400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
